--- a/Energy Consumption5.xlsx
+++ b/Energy Consumption5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8911779178449377</v>
+        <v>1.070094600866085</v>
       </c>
       <c r="C2" t="n">
-        <v>1.250539086652086</v>
+        <v>1.949439117313653</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.277876251408781</v>
+        <v>1.436643150133418</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64960537826663</v>
+        <v>4.052885245777932</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.520971194758173</v>
+        <v>3.787215586537338</v>
       </c>
       <c r="C4" t="n">
-        <v>4.156287697104811</v>
+        <v>6.519892421076485</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.087861940895015</v>
+        <v>4.205115307607776</v>
       </c>
       <c r="C5" t="n">
-        <v>5.325372307542757</v>
+        <v>8.521995367874593</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.03222956683395</v>
+        <v>5.884771137193976</v>
       </c>
       <c r="C6" t="n">
-        <v>6.568544180147529</v>
+        <v>10.76484375443066</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.82336491038141</v>
+        <v>6.737731502173306</v>
       </c>
       <c r="C7" t="n">
-        <v>7.793763630866288</v>
+        <v>12.82408792781244</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5184592208012</v>
+        <v>8.269121302527745</v>
       </c>
       <c r="C8" t="n">
-        <v>9.119600967357458</v>
+        <v>15.09184207979542</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.17130359500223</v>
+        <v>9.821478568297186</v>
       </c>
       <c r="C9" t="n">
-        <v>10.61906144298107</v>
+        <v>17.49637731023616</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.92566173516246</v>
+        <v>12.63574511001238</v>
       </c>
       <c r="C10" t="n">
-        <v>11.87587228369298</v>
+        <v>19.54618568192062</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.19931012907563</v>
+        <v>13.01577696911315</v>
       </c>
       <c r="C11" t="n">
-        <v>13.63115464738388</v>
+        <v>21.62524704637249</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.29488279091303</v>
+        <v>15.81653229041376</v>
       </c>
       <c r="C12" t="n">
-        <v>15.21269694435589</v>
+        <v>24.50956169666455</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.18061117974726</v>
+        <v>17.20130088917745</v>
       </c>
       <c r="C13" t="n">
-        <v>16.5855000833178</v>
+        <v>26.66492695702541</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.65095276663555</v>
+        <v>18.15490055164808</v>
       </c>
       <c r="C14" t="n">
-        <v>17.65490924891817</v>
+        <v>28.61459237479785</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.89069292218911</v>
+        <v>21.07259023384928</v>
       </c>
       <c r="C15" t="n">
-        <v>19.13474800211635</v>
+        <v>30.65123655041259</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.64772106660627</v>
+        <v>22.26389876482664</v>
       </c>
       <c r="C16" t="n">
-        <v>20.34897474454392</v>
+        <v>32.8685040839992</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.34471525617801</v>
+        <v>22.42468537696624</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5116735252355</v>
+        <v>34.76960797993618</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.77609609554549</v>
+        <v>25.6348929321804</v>
       </c>
       <c r="C18" t="n">
-        <v>22.74011494508009</v>
+        <v>36.99349727634269</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.09025840051614</v>
+        <v>26.71529546957016</v>
       </c>
       <c r="C19" t="n">
-        <v>24.43992085679118</v>
+        <v>39.29025016631252</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39.82811153999535</v>
+        <v>28.56097429342883</v>
       </c>
       <c r="C20" t="n">
-        <v>26.20981230458065</v>
+        <v>41.33036300388491</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.94876752559906</v>
+        <v>36.33386712404639</v>
       </c>
       <c r="C21" t="n">
-        <v>27.23210864331805</v>
+        <v>43.63655750256484</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42.42369702469598</v>
+        <v>38.83332052310951</v>
       </c>
       <c r="C22" t="n">
-        <v>28.54018438962374</v>
+        <v>45.60072540448348</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.89813501541215</v>
+        <v>39.60382002608137</v>
       </c>
       <c r="C23" t="n">
-        <v>30.04623095804753</v>
+        <v>47.79310263464475</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.60548706882635</v>
+        <v>40.84118351788496</v>
       </c>
       <c r="C24" t="n">
-        <v>31.35147638677817</v>
+        <v>50.05359660531692</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.07991640136621</v>
+        <v>42.05722374026853</v>
       </c>
       <c r="C25" t="n">
-        <v>32.94768996817189</v>
+        <v>52.0510276745283</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>46.6979940075647</v>
+        <v>42.18905378045974</v>
       </c>
       <c r="C26" t="n">
-        <v>34.23528056497674</v>
+        <v>54.29446044731539</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.80418385511863</v>
+        <v>45.39191774621054</v>
       </c>
       <c r="C27" t="n">
-        <v>35.47493029850399</v>
+        <v>56.2491001439523</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.23347404784416</v>
+        <v>50.3231234509356</v>
       </c>
       <c r="C28" t="n">
-        <v>37.33210833632224</v>
+        <v>58.59907624701708</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>56.06005993991597</v>
+        <v>50.77322372827352</v>
       </c>
       <c r="C29" t="n">
-        <v>38.86326921227379</v>
+        <v>60.67271899913607</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.66801788172863</v>
+        <v>54.75662843798163</v>
       </c>
       <c r="C30" t="n">
-        <v>40.07225010764029</v>
+        <v>62.55422647647692</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.81057300053723</v>
+        <v>56.1324871742077</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77312850808708</v>
+        <v>64.65001942580884</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61.7490041362062</v>
+        <v>58.07486926666923</v>
       </c>
       <c r="C32" t="n">
-        <v>42.81945511973526</v>
+        <v>66.63248690719456</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.48796194833322</v>
+        <v>59.86494961767859</v>
       </c>
       <c r="C33" t="n">
-        <v>44.49596472722675</v>
+        <v>68.51520602420244</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>64.7781124980205</v>
+        <v>63.62700101341061</v>
       </c>
       <c r="C34" t="n">
-        <v>45.83591009141432</v>
+        <v>70.46447443858833</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.49749769264469</v>
+        <v>65.26627530769346</v>
       </c>
       <c r="C35" t="n">
-        <v>47.33240021016413</v>
+        <v>72.60200273261145</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.70884384851028</v>
+        <v>68.66948468911215</v>
       </c>
       <c r="C36" t="n">
-        <v>48.72633408826749</v>
+        <v>74.9873895309416</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>71.81438474331119</v>
+        <v>70.48856712933821</v>
       </c>
       <c r="C37" t="n">
-        <v>49.91781703769482</v>
+        <v>77.13812851229274</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.35431500698839</v>
+        <v>72.60794727941862</v>
       </c>
       <c r="C38" t="n">
-        <v>51.64008227047325</v>
+        <v>79.41023042173869</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>73.14351469941725</v>
+        <v>74.2425974865932</v>
       </c>
       <c r="C39" t="n">
-        <v>53.52561578557081</v>
+        <v>81.43170463317584</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.7498732208972</v>
+        <v>76.06365240755424</v>
       </c>
       <c r="C40" t="n">
-        <v>54.91395900585695</v>
+        <v>83.50621878210691</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77.92978839080962</v>
+        <v>76.14957874210232</v>
       </c>
       <c r="C41" t="n">
-        <v>55.96293669000056</v>
+        <v>85.4884105376415</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86.48017913570291</v>
+        <v>77.87213565580082</v>
       </c>
       <c r="C42" t="n">
-        <v>57.43263551928887</v>
+        <v>87.79584633752843</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.13433598695993</v>
+        <v>82.83079939216451</v>
       </c>
       <c r="C43" t="n">
-        <v>58.80092876564647</v>
+        <v>89.80655793631423</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>91.59937791514865</v>
+        <v>84.98897450903945</v>
       </c>
       <c r="C44" t="n">
-        <v>60.29866946024407</v>
+        <v>92.06610034862747</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.42329185839704</v>
+        <v>87.15851009208343</v>
       </c>
       <c r="C45" t="n">
-        <v>61.89411973292966</v>
+        <v>94.28328766620751</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.1871103529422</v>
+        <v>87.29352796289311</v>
       </c>
       <c r="C46" t="n">
-        <v>63.03334562970494</v>
+        <v>96.47890792568111</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.2231471156684</v>
+        <v>89.15531203860846</v>
       </c>
       <c r="C47" t="n">
-        <v>64.61016842620191</v>
+        <v>98.74761496421334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90.86454508998294</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100.997633300931</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>92.63513400026071</v>
+      </c>
+      <c r="C49" t="n">
+        <v>102.9924907112505</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>94.92473796977741</v>
+      </c>
+      <c r="C50" t="n">
+        <v>104.9403476662315</v>
       </c>
     </row>
   </sheetData>
